--- a/biology/Zoologie/Gerbille_d'Éthiopie/Gerbille_d'Éthiopie.xlsx
+++ b/biology/Zoologie/Gerbille_d'Éthiopie/Gerbille_d'Éthiopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gerbille_d%27%C3%89thiopie</t>
+          <t>Gerbille_d'Éthiopie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus pulvinatus
-La Gerbille d'Éthiopie[1] (Gerbillus pulvinatus ou Gerbillus (Gerbillus) pulvinatus) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés qui fréquente les plaines et steppes de Djibouti, Éthiopie et Kenya.
+La Gerbille d'Éthiopie (Gerbillus pulvinatus ou Gerbillus (Gerbillus) pulvinatus) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés qui fréquente les plaines et steppes de Djibouti, Éthiopie et Kenya.
 </t>
         </is>
       </c>
